--- a/xlsx/国家利益_intext.xlsx
+++ b/xlsx/国家利益_intext.xlsx
@@ -59,13 +59,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%97%9C%E4%BF%82%E7%8F%BE%E5%AF%A6%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>國際關係現實主義</t>
+    <t>国际关系现实主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%AE%89%E5%85%A8</t>
   </si>
   <si>
-    <t>國家安全</t>
+    <t>国家安全</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E5%8D%81%E5%B9%B4%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>三十年戰爭</t>
+    <t>三十年战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E8%90%8A%E9%96%80%E6%96%AF%C2%B7%E6%A2%85%E7%89%B9%E6%B6%85</t>
   </si>
   <si>
-    <t>克萊門斯·梅特涅</t>
+    <t>克莱门斯·梅特涅</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E5%B8%83%E6%96%AF%E5%A0%A1%E7%8E%8B%E6%9C%9D</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>國際聯盟</t>
+    <t>国际联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%98</t>
@@ -173,13 +173,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%90%E6%A7%8B%E7%8F%BE%E5%AF%A6%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>結構現實主義</t>
+    <t>结构现实主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E6%83%B3%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>理想主義</t>
+    <t>理想主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%A5%BF%E6%96%AF%E4%B8%BB%E4%B9%89</t>
@@ -203,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E9%82%8A%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>多邊主義</t>
+    <t>多边主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%A4%E7%AB%8B%E4%B8%BB%E4%B9%89</t>
@@ -239,7 +239,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
